--- a/data/loop/group4/0.1/DNN/schedule/8.xlsx
+++ b/data/loop/group4/0.1/DNN/schedule/8.xlsx
@@ -462,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3913397789001465</v>
+        <v>0.3927419185638428</v>
       </c>
       <c r="G2" t="n">
         <v>0.06774167291075532</v>
       </c>
       <c r="H2" t="n">
-        <v>37.72159840721697</v>
+        <v>37.58692740113188</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
@@ -497,19 +497,19 @@
         <v>222</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3959829807281494</v>
+        <v>0.4006919860839844</v>
       </c>
       <c r="G3" t="n">
         <v>0.06901512542726339</v>
       </c>
       <c r="H3" t="n">
-        <v>36.59141448317318</v>
+        <v>36.16138550140382</v>
       </c>
       <c r="I3" t="n">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -544,13 +544,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4080150127410889</v>
+        <v>0.4122650623321533</v>
       </c>
       <c r="G4" t="n">
         <v>0.06835001086653933</v>
       </c>
       <c r="H4" t="n">
-        <v>35.85793445077866</v>
+        <v>35.48827421620325</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -585,13 +585,13 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3889451026916504</v>
+        <v>0.3907439708709717</v>
       </c>
       <c r="G5" t="n">
         <v>0.07278620692970303</v>
       </c>
       <c r="H5" t="n">
-        <v>35.32340857111156</v>
+        <v>35.16079018055239</v>
       </c>
       <c r="I5" t="n">
         <v>11</v>
@@ -626,13 +626,13 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4050390720367432</v>
+        <v>0.4062590599060059</v>
       </c>
       <c r="G6" t="n">
         <v>0.07073230535738667</v>
       </c>
       <c r="H6" t="n">
-        <v>34.9048091273003</v>
+        <v>34.79999068036133</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
@@ -647,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -658,34 +658,34 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4083321094512939</v>
+        <v>0.3941080570220947</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07097760597603957</v>
+        <v>0.0739646982326877</v>
       </c>
       <c r="H7" t="n">
-        <v>34.50365644791209</v>
+        <v>34.30521904684073</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -699,34 +699,34 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3922538757324219</v>
+        <v>0.411297082901001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0739646982326877</v>
+        <v>0.07097760597603957</v>
       </c>
       <c r="H8" t="n">
-        <v>34.46737957406563</v>
+        <v>34.25492522773347</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -749,13 +749,13 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.391916036605835</v>
+        <v>0.3927309513092041</v>
       </c>
       <c r="G9" t="n">
         <v>0.075710841861755</v>
       </c>
       <c r="H9" t="n">
-        <v>33.70147354713556</v>
+        <v>33.63154316291906</v>
       </c>
       <c r="I9" t="n">
         <v>18</v>
@@ -786,13 +786,13 @@
       <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="n">
-        <v>0.3959939479827881</v>
+        <v>0.3962569236755371</v>
       </c>
       <c r="G10" t="n">
         <v>0.07558255037321368</v>
       </c>
       <c r="H10" t="n">
-        <v>33.41103345260733</v>
+        <v>33.38886023835492</v>
       </c>
       <c r="I10" t="n">
         <v>7</v>
@@ -820,20 +820,16 @@
       <c r="C11" t="n">
         <v>234</v>
       </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
       <c r="F11" t="n">
-        <v>0.399367094039917</v>
+        <v>0.4015340805053711</v>
       </c>
       <c r="G11" t="n">
         <v>0.07502772026392493</v>
       </c>
       <c r="H11" t="n">
-        <v>33.37382399820775</v>
+        <v>33.19371319711824</v>
       </c>
       <c r="I11" t="n">
         <v>11</v>
@@ -841,15 +837,9 @@
       <c r="J11" t="n">
         <v>9</v>
       </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -861,20 +851,16 @@
       <c r="C12" t="n">
         <v>286</v>
       </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
       <c r="F12" t="n">
-        <v>0.4014420509338379</v>
+        <v>0.4023351669311523</v>
       </c>
       <c r="G12" t="n">
         <v>0.07519706358736356</v>
       </c>
       <c r="H12" t="n">
-        <v>33.12655359752051</v>
+        <v>33.0530182533956</v>
       </c>
       <c r="I12" t="n">
         <v>13</v>
@@ -882,15 +868,9 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="n">
-        <v>4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
@@ -902,20 +882,16 @@
       <c r="C13" t="n">
         <v>36</v>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
       <c r="F13" t="n">
-        <v>0.5169610977172852</v>
+        <v>0.5187339782714844</v>
       </c>
       <c r="G13" t="n">
         <v>0.06838403761515033</v>
       </c>
       <c r="H13" t="n">
-        <v>28.28703304307627</v>
+        <v>28.19035626284073</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
@@ -923,15 +899,9 @@
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="n">
@@ -943,20 +913,16 @@
       <c r="C14" t="n">
         <v>33</v>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
       <c r="F14" t="n">
-        <v>0.5210208892822266</v>
+        <v>0.5236070156097412</v>
       </c>
       <c r="G14" t="n">
         <v>0.0678972182343598</v>
       </c>
       <c r="H14" t="n">
-        <v>28.26785680697618</v>
+        <v>28.12824017363943</v>
       </c>
       <c r="I14" t="n">
         <v>6</v>
@@ -964,15 +930,9 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="n">
@@ -984,20 +944,16 @@
       <c r="C15" t="n">
         <v>203</v>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
       <c r="F15" t="n">
-        <v>0.5219728946685791</v>
+        <v>0.5229620933532715</v>
       </c>
       <c r="G15" t="n">
         <v>0.06817306074911482</v>
       </c>
       <c r="H15" t="n">
-        <v>28.1021311251288</v>
+        <v>28.04897509049579</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
@@ -1005,15 +961,9 @@
       <c r="J15" t="n">
         <v>13</v>
       </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="n">
@@ -1025,20 +975,16 @@
       <c r="C16" t="n">
         <v>99</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
       <c r="F16" t="n">
-        <v>0.5196549892425537</v>
+        <v>0.5207071304321289</v>
       </c>
       <c r="G16" t="n">
         <v>0.0696751805192809</v>
       </c>
       <c r="H16" t="n">
-        <v>27.61892661360232</v>
+        <v>27.56311979129529</v>
       </c>
       <c r="I16" t="n">
         <v>6</v>
@@ -1046,15 +992,9 @@
       <c r="J16" t="n">
         <v>14</v>
       </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="n">
@@ -1066,20 +1006,16 @@
       <c r="C17" t="n">
         <v>273</v>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
       <c r="F17" t="n">
-        <v>0.5256328582763672</v>
+        <v>0.5268139839172363</v>
       </c>
       <c r="G17" t="n">
         <v>0.06995348373995321</v>
       </c>
       <c r="H17" t="n">
-        <v>27.19619500087177</v>
+        <v>27.13522068312349</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -1087,15 +1023,9 @@
       <c r="J17" t="n">
         <v>15</v>
       </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="n">
@@ -1107,20 +1037,16 @@
       <c r="C18" t="n">
         <v>144</v>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
       <c r="F18" t="n">
-        <v>0.5225028991699219</v>
+        <v>0.5236160755157471</v>
       </c>
       <c r="G18" t="n">
         <v>0.07060850700262374</v>
       </c>
       <c r="H18" t="n">
-        <v>27.10530302881217</v>
+        <v>27.04767878160323</v>
       </c>
       <c r="I18" t="n">
         <v>6</v>
@@ -1128,15 +1054,9 @@
       <c r="J18" t="n">
         <v>16</v>
       </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="n">
@@ -1148,20 +1068,16 @@
       <c r="C19" t="n">
         <v>214</v>
       </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
       <c r="F19" t="n">
-        <v>0.529810905456543</v>
+        <v>0.534041166305542</v>
       </c>
       <c r="G19" t="n">
         <v>0.07268046703462593</v>
       </c>
       <c r="H19" t="n">
-        <v>25.96936899256767</v>
+        <v>25.76365974793686</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1169,15 +1085,9 @@
       <c r="J19" t="n">
         <v>17</v>
       </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="n">
@@ -1189,20 +1099,16 @@
       <c r="C20" t="n">
         <v>217</v>
       </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
       <c r="F20" t="n">
-        <v>0.5250999927520752</v>
+        <v>0.5287280082702637</v>
       </c>
       <c r="G20" t="n">
         <v>0.07491939659622623</v>
       </c>
       <c r="H20" t="n">
-        <v>25.41930761421277</v>
+        <v>25.24488590580418</v>
       </c>
       <c r="I20" t="n">
         <v>6</v>
@@ -1210,15 +1116,9 @@
       <c r="J20" t="n">
         <v>18</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="n">
@@ -1230,20 +1130,16 @@
       <c r="C21" t="n">
         <v>146</v>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
       <c r="F21" t="n">
-        <v>0.5232589244842529</v>
+        <v>0.5270991325378418</v>
       </c>
       <c r="G21" t="n">
         <v>0.0754834355638585</v>
       </c>
       <c r="H21" t="n">
-        <v>25.31813418625163</v>
+        <v>25.13367760720972</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1251,15 +1147,9 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="n">
@@ -1271,20 +1161,16 @@
       <c r="C22" t="n">
         <v>212</v>
       </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
       <c r="F22" t="n">
-        <v>0.5233030319213867</v>
+        <v>0.5259308815002441</v>
       </c>
       <c r="G22" t="n">
         <v>0.07583478884198637</v>
       </c>
       <c r="H22" t="n">
-        <v>25.19870760519517</v>
+        <v>25.07280054117343</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1292,15 +1178,9 @@
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="n">
@@ -1312,20 +1192,16 @@
       <c r="C23" t="n">
         <v>91</v>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
       <c r="F23" t="n">
-        <v>0.5209181308746338</v>
+        <v>0.5233850479125977</v>
       </c>
       <c r="G23" t="n">
         <v>0.07672178656037833</v>
       </c>
       <c r="H23" t="n">
-        <v>25.02141229100731</v>
+        <v>24.90347665539681</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
@@ -1333,15 +1209,9 @@
       <c r="J23" t="n">
         <v>21</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="n">
@@ -1351,38 +1221,28 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>28</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D24" t="s"/>
+      <c r="E24" t="s"/>
       <c r="F24" t="n">
-        <v>0.536506175994873</v>
+        <v>0.5282390117645264</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07537588079543489</v>
+        <v>0.07722849857853509</v>
       </c>
       <c r="H24" t="n">
-        <v>24.72822104456244</v>
+        <v>24.51274438796521</v>
       </c>
       <c r="I24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J24" t="n">
         <v>22</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="n">
@@ -1392,38 +1252,28 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>211</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s"/>
       <c r="F25" t="n">
-        <v>0.5246059894561768</v>
+        <v>0.5418980121612549</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07722849857853509</v>
+        <v>0.07537588079543489</v>
       </c>
       <c r="H25" t="n">
-        <v>24.68250102244944</v>
+        <v>24.48217748365954</v>
       </c>
       <c r="I25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
         <v>23</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="n">
@@ -1435,20 +1285,16 @@
       <c r="C26" t="n">
         <v>154</v>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
+      <c r="D26" t="s"/>
+      <c r="E26" t="s"/>
       <c r="F26" t="n">
-        <v>0.5243408679962158</v>
+        <v>0.5302438735961914</v>
       </c>
       <c r="G26" t="n">
         <v>0.07873640682707593</v>
       </c>
       <c r="H26" t="n">
-        <v>24.22203903390834</v>
+        <v>23.95238418416861</v>
       </c>
       <c r="I26" t="n">
         <v>18</v>
@@ -1456,15 +1302,9 @@
       <c r="J26" t="n">
         <v>24</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="n">
@@ -1476,20 +1316,16 @@
       <c r="C27" t="n">
         <v>80</v>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s"/>
       <c r="F27" t="n">
-        <v>0.5568859577178955</v>
+        <v>0.5625960826873779</v>
       </c>
       <c r="G27" t="n">
         <v>0.07579978372778695</v>
       </c>
       <c r="H27" t="n">
-        <v>23.69003849993681</v>
+        <v>23.44959409492012</v>
       </c>
       <c r="I27" t="n">
         <v>20</v>
@@ -1497,15 +1333,9 @@
       <c r="J27" t="n">
         <v>25</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="n">
@@ -1517,20 +1347,16 @@
       <c r="C28" t="n">
         <v>140</v>
       </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
+      <c r="D28" t="s"/>
+      <c r="E28" t="s"/>
       <c r="F28" t="n">
-        <v>0.5386559963226318</v>
+        <v>0.5412149429321289</v>
       </c>
       <c r="G28" t="n">
         <v>0.08001811449319161</v>
       </c>
       <c r="H28" t="n">
-        <v>23.20065187522179</v>
+        <v>23.09095566259954</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1538,15 +1364,9 @@
       <c r="J28" t="n">
         <v>26</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="n">
@@ -1558,20 +1378,16 @@
       <c r="C29" t="n">
         <v>258</v>
       </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+      <c r="D29" t="s"/>
+      <c r="E29" t="s"/>
       <c r="F29" t="n">
-        <v>0.8741600513458252</v>
+        <v>0.8835229873657227</v>
       </c>
       <c r="G29" t="n">
         <v>0.07075105646153386</v>
       </c>
       <c r="H29" t="n">
-        <v>16.16873768397503</v>
+        <v>15.9973931251776</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1579,15 +1395,9 @@
       <c r="J29" t="n">
         <v>27</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="n">
@@ -1599,20 +1409,16 @@
       <c r="C30" t="n">
         <v>72</v>
       </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2</v>
-      </c>
+      <c r="D30" t="s"/>
+      <c r="E30" t="s"/>
       <c r="F30" t="n">
-        <v>0.8674938678741455</v>
+        <v>0.8744540214538574</v>
       </c>
       <c r="G30" t="n">
         <v>0.08086049077683605</v>
       </c>
       <c r="H30" t="n">
-        <v>14.25598446830805</v>
+        <v>14.14251499033087</v>
       </c>
       <c r="I30" t="n">
         <v>11</v>
@@ -1620,15 +1426,9 @@
       <c r="J30" t="n">
         <v>28</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="n">
@@ -1640,20 +1440,16 @@
       <c r="C31" t="n">
         <v>1</v>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
+      <c r="D31" t="s"/>
+      <c r="E31" t="s"/>
       <c r="F31" t="n">
-        <v>0.9676339626312256</v>
+        <v>0.9814579486846924</v>
       </c>
       <c r="G31" t="n">
         <v>0.07418821028323992</v>
       </c>
       <c r="H31" t="n">
-        <v>13.93009257488638</v>
+        <v>13.73388507996843</v>
       </c>
       <c r="I31" t="n">
         <v>7</v>
@@ -1661,15 +1457,9 @@
       <c r="J31" t="n">
         <v>29</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
